--- a/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
+++ b/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step02_PreprocessDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4AF53-D873-4D73-9395-2EFD1B2B9FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD152773-1444-4F13-9C08-64C3228DBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="23745" yWindow="5505" windowWidth="21600" windowHeight="15435" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step02A" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
+++ b/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step02_PreprocessDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD152773-1444-4F13-9C08-64C3228DBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B3F19-FAD0-4020-A6D9-82824F8369A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23745" yWindow="5505" windowWidth="21600" windowHeight="15435" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step02A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>ns</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>small set for testing</t>
+  </si>
+  <si>
+    <t>FlatDatasetScenario2.mat</t>
+  </si>
+  <si>
+    <t>all elements either 0.1 or 0.9</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario4.mat</t>
+  </si>
+  <si>
+    <t>FlatDatasetScenario3.mat</t>
+  </si>
+  <si>
+    <t>all elements either 0.2 or 0.8</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario5.mat</t>
   </si>
 </sst>
 </file>
@@ -466,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +549,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -539,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26DCFE-852C-43F6-A4E9-3E96C2EC7437}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +690,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
+++ b/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step02_PreprocessDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B3F19-FAD0-4020-A6D9-82824F8369A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDA8E3-1CA4-4BB4-8AE5-856972DAE50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8175" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step02A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>ns</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>TrainingAndTestDataScenario5.mat</t>
+  </si>
+  <si>
+    <t>D values are all 0.1 and 0.9</t>
+  </si>
+  <si>
+    <t>D values are all 0.2 and 0.8</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +709,9 @@
       <c r="D5">
         <v>10000</v>
       </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -716,6 +725,9 @@
       </c>
       <c r="D6" t="s">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
+++ b/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step02_PreprocessDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDA8E3-1CA4-4BB4-8AE5-856972DAE50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4A984-BA21-4AC1-8FC9-E2396952F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8175" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step02A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>ns</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>D values are all 0.2 and 0.8</t>
+  </si>
+  <si>
+    <t>D values are all 0.0 and 1.0</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +664,9 @@
       <c r="D2">
         <v>10000</v>
       </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
+++ b/Applications/MNIST/Step02_PreprocessDataset/Step02_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step02_PreprocessDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4A984-BA21-4AC1-8FC9-E2396952F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D8A80-FC1A-4500-B79D-38CC94FF1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step02A" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,7 +609,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
